--- a/03-01-26 to 03-07-26 Milwaukee Schedule.xlsx
+++ b/03-01-26 to 03-07-26 Milwaukee Schedule.xlsx
@@ -696,7 +696,7 @@
 BUSINESS CASUAL 
 (JEANS NOT RECOMMENDED)
 ADULTS ONLY
-5:00 PM - DOOR OPEN / DRINKS
+5:00 PM - DOORS OPEN / DRINKS
 6:30 PM - DINNER
 7:30 PM - ANNIVERSARY AWARDS / PROGRAM</t>
         </is>

--- a/03-01-26 to 03-07-26 Milwaukee Schedule.xlsx
+++ b/03-01-26 to 03-07-26 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y71"/>
+  <dimension ref="A1:Y70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1152,8 +1152,7 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T17" t="inlineStr"/>
@@ -1228,12 +1227,13 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Charletta</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>work w/ Carlie</t>
+          <t>Driver,
+Altima</t>
         </is>
       </c>
       <c r="T18" t="inlineStr"/>
@@ -1303,15 +1303,10 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
@@ -1356,10 +1351,15 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Charletta</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima</t>
+        </is>
+      </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
@@ -1386,10 +1386,15 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
@@ -1433,15 +1438,10 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
@@ -1462,15 +1462,10 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
@@ -1519,10 +1514,16 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
@@ -1543,7 +1544,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="S22" t="inlineStr"/>
@@ -1600,14 +1601,12 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Driver,
-Red Van,
-Supv Rx</t>
+          <t>Rx</t>
         </is>
       </c>
       <c r="L23" t="inlineStr"/>
@@ -1635,7 +1634,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Matthew</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S23" t="inlineStr"/>
@@ -1686,14 +1685,10 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>Rx</t>
-        </is>
-      </c>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
@@ -1718,7 +1713,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
@@ -1765,7 +1760,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
@@ -1793,7 +1788,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Zakiyah</t>
         </is>
       </c>
       <c r="S25" t="inlineStr"/>
@@ -1828,7 +1823,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
@@ -1849,16 +1844,8 @@
         </is>
       </c>
       <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
@@ -1891,7 +1878,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Matthew</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
@@ -1950,7 +1937,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
@@ -1972,7 +1959,11 @@
       </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>6:15 AM MEET BAYSHORE</t>
+        </is>
+      </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
@@ -2006,16 +1997,8 @@
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
@@ -2037,7 +2020,7 @@
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
         <is>
-          <t>6:15 AM MEET BAYSHORE</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="S29" t="inlineStr"/>
@@ -2080,7 +2063,7 @@
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="S30" t="inlineStr"/>
@@ -2115,7 +2098,7 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>AURORA OUTPATIENT RX #1222, CEDAR GROVE</t>
         </is>
       </c>
       <c r="S31" t="inlineStr"/>
@@ -2154,7 +2137,7 @@
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1222, CEDAR GROVE</t>
+          <t>313 SOUTH MAIN ST</t>
         </is>
       </c>
       <c r="S32" t="inlineStr"/>
@@ -2197,7 +2180,7 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>313 SOUTH MAIN ST</t>
+          <t>https://goo.gl/maps/Z3osjsSq666QtkPNA</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
@@ -2235,11 +2218,7 @@
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/Z3osjsSq666QtkPNA</t>
-        </is>
-      </c>
+      <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
@@ -2285,9 +2264,21 @@
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
@@ -2335,17 +2326,18 @@
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Wht Camry
+Train w/ Jeremiah</t>
         </is>
       </c>
       <c r="T36" t="inlineStr"/>
@@ -2382,18 +2374,17 @@
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>Wht Camry
-Train w/ Jeremiah</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T37" t="inlineStr"/>
@@ -2420,21 +2411,9 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>Annette</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
@@ -2535,7 +2514,11 @@
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
@@ -2576,7 +2559,7 @@
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -2619,7 +2602,7 @@
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>ROETTGERS HIGHWAY 45 ARC</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -2666,7 +2649,7 @@
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
         <is>
-          <t>ROETTGERS HIGHWAY 45 ARC</t>
+          <t>5501 N LOVERS LANE</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
@@ -2713,7 +2696,7 @@
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
         <is>
-          <t>5501 N LOVERS LANE</t>
+          <t>https://maps.app.goo.gl/7F5cQ4UvGnWBLWHe9</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
@@ -2756,7 +2739,7 @@
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/7F5cQ4UvGnWBLWHe9</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="S45" t="inlineStr"/>
@@ -2813,7 +2796,7 @@
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t xml:space="preserve">MODAS-SCAN </t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
@@ -2864,7 +2847,7 @@
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
-          <t xml:space="preserve">MODAS-SCAN </t>
+          <t>ROETTGERS TOSA ARC</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
@@ -2911,7 +2894,7 @@
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
-          <t>ROETTGERS TOSA ARC</t>
+          <t>8806 W NORTH AVE</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
@@ -2974,7 +2957,7 @@
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>8806 W NORTH AVE</t>
+          <t>https://maps.app.goo.gl/dskJKrYpRASQAByz8</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -3027,11 +3010,7 @@
       </c>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/dskJKrYpRASQAByz8</t>
-        </is>
-      </c>
+      <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
@@ -3081,9 +3060,21 @@
         </is>
       </c>
       <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Santa Fe available, Equip</t>
+        </is>
+      </c>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
@@ -3126,19 +3117,15 @@
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>Santa Fe available, Equip</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
@@ -3181,12 +3168,12 @@
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -3236,12 +3223,12 @@
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3289,16 +3276,8 @@
       </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
@@ -3392,7 +3371,11 @@
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>4:30 AM OFFICE LEAVE TIME</t>
+        </is>
+      </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
@@ -3437,7 +3420,7 @@
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>4:30 AM OFFICE LEAVE TIME</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -3493,7 +3476,7 @@
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
@@ -3556,7 +3539,7 @@
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>SULLIVAN'S FOODS #242, MARENGO</t>
         </is>
       </c>
       <c r="S60" t="inlineStr"/>
@@ -3603,7 +3586,7 @@
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
-          <t>SULLIVAN'S FOODS #242, MARENGO</t>
+          <t>202 LINDOW LANE</t>
         </is>
       </c>
       <c r="S61" t="inlineStr"/>
@@ -3642,7 +3625,7 @@
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr">
         <is>
-          <t>202 LINDOW LANE</t>
+          <t>https://goo.gl/maps/GrPtfaDKMT2RotRb9</t>
         </is>
       </c>
       <c r="S62" t="inlineStr"/>
@@ -3675,11 +3658,7 @@
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/GrPtfaDKMT2RotRb9</t>
-        </is>
-      </c>
+      <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
@@ -3717,9 +3696,21 @@
       </c>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr"/>
@@ -3750,17 +3741,17 @@
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Optima</t>
         </is>
       </c>
       <c r="T65" t="inlineStr"/>
@@ -3789,17 +3780,17 @@
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>Optima</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T66" t="inlineStr"/>
@@ -3828,12 +3819,12 @@
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
@@ -3867,12 +3858,12 @@
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
@@ -3906,12 +3897,12 @@
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
@@ -3945,12 +3936,12 @@
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
@@ -3965,45 +3956,6 @@
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
     </row>
-    <row r="71">
-      <c r="A71" t="inlineStr"/>
-      <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr"/>
-      <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/03-01-26 to 03-07-26 Milwaukee Schedule.xlsx
+++ b/03-01-26 to 03-07-26 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y70"/>
+  <dimension ref="A1:Y71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2218,7 +2218,11 @@
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>*Check in w/ Sheboygan after (only Jerry)</t>
+        </is>
+      </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
@@ -2264,21 +2268,9 @@
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
@@ -2326,18 +2318,17 @@
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>Wht Camry
-Train w/ Jeremiah</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="T36" t="inlineStr"/>
@@ -2374,17 +2365,18 @@
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Wht Camry
+Train w/ Jeremiah</t>
         </is>
       </c>
       <c r="T37" t="inlineStr"/>
@@ -2411,9 +2403,21 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>Annette</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
@@ -2514,11 +2518,7 @@
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
@@ -2559,7 +2559,7 @@
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -2602,7 +2602,7 @@
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
         <is>
-          <t>ROETTGERS HIGHWAY 45 ARC</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -2649,7 +2649,7 @@
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
         <is>
-          <t>5501 N LOVERS LANE</t>
+          <t>ROETTGERS HIGHWAY 45 ARC</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
@@ -2696,7 +2696,7 @@
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/7F5cQ4UvGnWBLWHe9</t>
+          <t>5501 N LOVERS LANE</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
@@ -2739,7 +2739,7 @@
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://maps.app.goo.gl/7F5cQ4UvGnWBLWHe9</t>
         </is>
       </c>
       <c r="S45" t="inlineStr"/>
@@ -2796,7 +2796,7 @@
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr">
         <is>
-          <t xml:space="preserve">MODAS-SCAN </t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
@@ -2847,7 +2847,7 @@
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr">
         <is>
-          <t>ROETTGERS TOSA ARC</t>
+          <t xml:space="preserve">MODAS-SCAN </t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
@@ -2894,7 +2894,7 @@
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
-          <t>8806 W NORTH AVE</t>
+          <t>ROETTGERS TOSA ARC</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
@@ -2957,7 +2957,7 @@
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/dskJKrYpRASQAByz8</t>
+          <t>8806 W NORTH AVE</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -3010,7 +3010,11 @@
       </c>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/dskJKrYpRASQAByz8</t>
+        </is>
+      </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
@@ -3060,21 +3064,9 @@
         </is>
       </c>
       <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>Santa Fe available, Equip</t>
-        </is>
-      </c>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
@@ -3117,15 +3109,19 @@
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>Santa Fe available, Equip</t>
+        </is>
+      </c>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
@@ -3168,12 +3164,12 @@
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -3223,12 +3219,12 @@
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3276,8 +3272,16 @@
       </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
@@ -3371,11 +3375,7 @@
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>4:30 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
@@ -3420,7 +3420,7 @@
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>4:30 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -3476,7 +3476,7 @@
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
@@ -3539,7 +3539,7 @@
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr">
         <is>
-          <t>SULLIVAN'S FOODS #242, MARENGO</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S60" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
-          <t>202 LINDOW LANE</t>
+          <t>SULLIVAN'S FOODS #242, MARENGO</t>
         </is>
       </c>
       <c r="S61" t="inlineStr"/>
@@ -3625,7 +3625,7 @@
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/GrPtfaDKMT2RotRb9</t>
+          <t>202 LINDOW LANE</t>
         </is>
       </c>
       <c r="S62" t="inlineStr"/>
@@ -3658,7 +3658,11 @@
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/GrPtfaDKMT2RotRb9</t>
+        </is>
+      </c>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
@@ -3696,21 +3700,9 @@
       </c>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr"/>
@@ -3741,17 +3733,17 @@
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>Optima</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="T65" t="inlineStr"/>
@@ -3780,17 +3772,17 @@
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Optima</t>
         </is>
       </c>
       <c r="T66" t="inlineStr"/>
@@ -3819,12 +3811,12 @@
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
@@ -3858,12 +3850,12 @@
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
@@ -3897,12 +3889,12 @@
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
@@ -3936,12 +3928,12 @@
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
@@ -3956,6 +3948,45 @@
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
     </row>
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/03-01-26 to 03-07-26 Milwaukee Schedule.xlsx
+++ b/03-01-26 to 03-07-26 Milwaukee Schedule.xlsx
@@ -1215,7 +1215,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Celina</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
@@ -1368,16 +1368,10 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van,
-Supv Rx</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1450,10 +1444,15 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr"/>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
@@ -1532,7 +1531,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Zakiyah</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
@@ -1777,7 +1776,8 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="P25" t="inlineStr"/>
@@ -2594,7 +2594,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Celina</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -2688,7 +2688,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Mariah</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Matthew</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -2788,7 +2788,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Mariah</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -2839,7 +2839,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Zakiyah</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
